--- a/medicine/Psychotrope/Sarah_T._–_Portrait_of_a_Teenage_Alcoholic/Sarah_T._–_Portrait_of_a_Teenage_Alcoholic.xlsx
+++ b/medicine/Psychotrope/Sarah_T._–_Portrait_of_a_Teenage_Alcoholic/Sarah_T._–_Portrait_of_a_Teenage_Alcoholic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sarah_T._%E2%80%93_Portrait_of_a_Teenage_Alcoholic</t>
+          <t>Sarah_T._–_Portrait_of_a_Teenage_Alcoholic</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Sarah T. – Portrait of a Teenage Alcoholic (« Sarah T. – Portrait d’une adolescente alcoolique ») est un téléfilm américain réalisé par Richard Donner et diffusé en 1975 sur NBC[1].
+Sarah T. – Portrait of a Teenage Alcoholic (« Sarah T. – Portrait d’une adolescente alcoolique ») est un téléfilm américain réalisé par Richard Donner et diffusé en 1975 sur NBC.
 Il raconte l'histoire d'une jeune fille (Linda Blair) qui sombre petit à petit dans l'alcool pour échapper à ses problèmes personnels (parents divorcés, sentiment de solitude et d'inadéquation avec la société, incompréhension de sa mère). Elle commence à mentir à ses proches et à elle-même, refusant de reconnaître avoir un problème avec l'alcool, et s'enfonce progressivement dans une situation destructrice.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sarah_T._%E2%80%93_Portrait_of_a_Teenage_Alcoholic</t>
+          <t>Sarah_T._–_Portrait_of_a_Teenage_Alcoholic</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sarah Travis (Linda Blair) est une jeune fille de 15 ans confrontée à des sentiments d'isolement et d'inadéquation. Ses parents sont divorcés et elle a peu de contacts avec son père alcoolique et au chômage, Jerry (Larry Hagman). Elle vit avec sa mère Joanne (Verna Bloom) et son beau-père Matt (William Daniels), qui ne remarquent ni l'un ni l'autre à quel point Sarah se sent seule. Elle se sent éclipsée par sa sœur Nancy (Laurette Spang (en)) et souhaite vivre avec son père.
 Sarah commence à boire de l'alcool lors d'une fête organisée par sa mère après avoir été mal à l'aise face aux questions personnelles des invités. Plus tard lors d'une soirée entre adolescents où elle ne connait presque personne et se sent mal à l'aise, elle boit jusqu'à en être ivre et commence à s'amuser, chantant même devant l'assemblée, ce que tout le monde apprécie et la félicite pour cela. De retour chez ses parents, ceux-ci blâment à tort son ami adolescent, Ken (Mark Hamill). Joanne est plus préoccupée par ce que pensent les autres que par le bien-être de sa fille.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sarah_T._%E2%80%93_Portrait_of_a_Teenage_Alcoholic</t>
+          <t>Sarah_T._–_Portrait_of_a_Teenage_Alcoholic</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Linda Blair : Sarah Travis
 Verna Bloom : la mère de Sarah
